--- a/data/trans_orig/P14A30-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A30-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F54295A5-3F77-40C9-8247-7BE56646EA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6395E67-10EC-40B0-94E2-A5D1D823705A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9D0325E1-19BB-48E5-81F0-71DEDCB1E9D0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{677A61B0-F609-43AE-96A3-150C39EF8B8E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="154">
   <si>
     <t>Población que recibe medicación o terapia por cirrosis en 2012 (Tasa respuesta: 0,66%)</t>
   </si>
@@ -105,13 +105,10 @@
     <t>75,01%</t>
   </si>
   <si>
-    <t>24,19%</t>
-  </si>
-  <si>
     <t>71,73%</t>
   </si>
   <si>
-    <t>28,75%</t>
+    <t>28,86%</t>
   </si>
   <si>
     <t>32,67%</t>
@@ -120,13 +117,10 @@
     <t>24,99%</t>
   </si>
   <si>
-    <t>75,81%</t>
-  </si>
-  <si>
     <t>28,27%</t>
   </si>
   <si>
-    <t>71,25%</t>
+    <t>71,14%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -135,49 +129,49 @@
     <t>67,0%</t>
   </si>
   <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
   </si>
   <si>
     <t>80,48%</t>
   </si>
   <si>
-    <t>34,14%</t>
+    <t>21,22%</t>
   </si>
   <si>
     <t>71,94%</t>
   </si>
   <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
   </si>
   <si>
     <t>33,0%</t>
   </si>
   <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
   </si>
   <si>
     <t>19,52%</t>
   </si>
   <si>
-    <t>65,86%</t>
+    <t>78,78%</t>
   </si>
   <si>
     <t>28,06%</t>
   </si>
   <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -192,13 +186,13 @@
     <t>83,96%</t>
   </si>
   <si>
-    <t>33,59%</t>
+    <t>33,86%</t>
   </si>
   <si>
     <t>72,48%</t>
   </si>
   <si>
-    <t>32,95%</t>
+    <t>33,57%</t>
   </si>
   <si>
     <t>40,61%</t>
@@ -210,13 +204,13 @@
     <t>16,04%</t>
   </si>
   <si>
-    <t>66,41%</t>
+    <t>66,14%</t>
   </si>
   <si>
     <t>27,52%</t>
   </si>
   <si>
-    <t>67,05%</t>
+    <t>66,43%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -270,55 +264,55 @@
     <t>70,6%</t>
   </si>
   <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
   </si>
   <si>
     <t>72,05%</t>
   </si>
   <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
   </si>
   <si>
     <t>71,28%</t>
   </si>
   <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
   </si>
   <si>
     <t>29,4%</t>
   </si>
   <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
   </si>
   <si>
     <t>27,95%</t>
   </si>
   <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
   </si>
   <si>
     <t>28,72%</t>
   </si>
   <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -348,19 +342,19 @@
     <t>78,94%</t>
   </si>
   <si>
-    <t>25,95%</t>
+    <t>16,96%</t>
   </si>
   <si>
     <t>21,06%</t>
   </si>
   <si>
-    <t>74,05%</t>
+    <t>83,04%</t>
   </si>
   <si>
     <t>66,4%</t>
   </si>
   <si>
-    <t>19,38%</t>
+    <t>19,24%</t>
   </si>
   <si>
     <t>48,01%</t>
@@ -369,16 +363,16 @@
     <t>61,67%</t>
   </si>
   <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
   </si>
   <si>
     <t>33,6%</t>
   </si>
   <si>
-    <t>80,62%</t>
+    <t>80,76%</t>
   </si>
   <si>
     <t>51,99%</t>
@@ -387,40 +381,40 @@
     <t>38,33%</t>
   </si>
   <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
   </si>
   <si>
     <t>59,58%</t>
   </si>
   <si>
-    <t>12,9%</t>
+    <t>14,56%</t>
   </si>
   <si>
     <t>64,43%</t>
   </si>
   <si>
-    <t>21,94%</t>
+    <t>22,02%</t>
   </si>
   <si>
     <t>40,42%</t>
   </si>
   <si>
-    <t>87,1%</t>
+    <t>85,44%</t>
   </si>
   <si>
     <t>35,57%</t>
   </si>
   <si>
-    <t>78,06%</t>
+    <t>77,98%</t>
   </si>
   <si>
     <t>61,72%</t>
   </si>
   <si>
-    <t>17,76%</t>
+    <t>17,87%</t>
   </si>
   <si>
     <t>40,15%</t>
@@ -429,16 +423,16 @@
     <t>48,22%</t>
   </si>
   <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
   </si>
   <si>
     <t>38,28%</t>
   </si>
   <si>
-    <t>82,24%</t>
+    <t>82,13%</t>
   </si>
   <si>
     <t>59,85%</t>
@@ -447,64 +441,64 @@
     <t>51,78%</t>
   </si>
   <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
   </si>
   <si>
     <t>64,07%</t>
   </si>
   <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
   </si>
   <si>
     <t>43,86%</t>
   </si>
   <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
   </si>
   <si>
     <t>56,86%</t>
   </si>
   <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
   </si>
   <si>
     <t>35,93%</t>
   </si>
   <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
   </si>
   <si>
     <t>56,14%</t>
   </si>
   <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
   </si>
   <si>
     <t>43,14%</t>
   </si>
   <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
   </si>
 </sst>
 </file>
@@ -916,7 +910,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209307B4-9BCE-43F1-9473-A1A2CF1D659D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{302AEF23-B10B-4EEF-BA33-30BFF6868D8F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1344,7 +1338,7 @@
         <v>21</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>16</v>
@@ -1356,10 +1350,10 @@
         <v>4955</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>16</v>
@@ -1377,7 +1371,7 @@
         <v>963</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>15</v>
@@ -1392,13 +1386,13 @@
         <v>990</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -1407,13 +1401,13 @@
         <v>1953</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1469,7 +1463,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1481,13 +1475,13 @@
         <v>6319</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -1496,10 +1490,10 @@
         <v>4400</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>16</v>
@@ -1511,13 +1505,13 @@
         <v>10719</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1532,13 +1526,13 @@
         <v>3113</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -1547,13 +1541,13 @@
         <v>1067</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -1562,13 +1556,13 @@
         <v>4180</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1624,7 +1618,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1636,10 +1630,10 @@
         <v>3254</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>16</v>
@@ -1651,10 +1645,10 @@
         <v>5244</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>16</v>
@@ -1666,10 +1660,10 @@
         <v>8498</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>16</v>
@@ -1687,13 +1681,13 @@
         <v>2225</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -1702,13 +1696,13 @@
         <v>1002</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -1717,13 +1711,13 @@
         <v>3227</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1779,7 +1773,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1794,7 +1788,7 @@
         <v>16</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>18</v>
@@ -1806,13 +1800,13 @@
         <v>3361</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -1821,13 +1815,13 @@
         <v>8469</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1845,10 +1839,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -1857,13 +1851,13 @@
         <v>3139</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -1872,13 +1866,13 @@
         <v>3139</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1946,13 +1940,13 @@
         <v>17602</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H22" s="7">
         <v>15</v>
@@ -1961,13 +1955,13 @@
         <v>15974</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M22" s="7">
         <v>31</v>
@@ -1976,13 +1970,13 @@
         <v>33576</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1997,13 +1991,13 @@
         <v>7331</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -2012,13 +2006,13 @@
         <v>6198</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M23" s="7">
         <v>12</v>
@@ -2027,13 +2021,13 @@
         <v>13528</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2089,7 +2083,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2111,7 +2105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1DAEA9B-F16C-4CF0-A801-1467E85393C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC57426C-CDD9-4603-BD79-8BD2B976C7AE}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2128,7 +2122,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2251,10 +2245,10 @@
         <v>15</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2266,10 +2260,10 @@
         <v>15</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2300,7 +2294,7 @@
         <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>18</v>
@@ -2315,7 +2309,7 @@
         <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>18</v>
@@ -2387,10 +2381,10 @@
         <v>15</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -2399,7 +2393,7 @@
         <v>885</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>15</v>
@@ -2414,7 +2408,7 @@
         <v>885</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>15</v>
@@ -2438,7 +2432,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>18</v>
@@ -2450,7 +2444,7 @@
         <v>922</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>15</v>
@@ -2465,7 +2459,7 @@
         <v>1842</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>15</v>
@@ -2539,10 +2533,10 @@
         <v>4676</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>16</v>
@@ -2567,10 +2561,10 @@
         <v>4676</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>16</v>
@@ -2588,13 +2582,13 @@
         <v>1247</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2616,13 +2610,13 @@
         <v>1247</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2676,7 +2670,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2688,10 +2682,10 @@
         <v>4004</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>16</v>
@@ -2703,7 +2697,7 @@
         <v>1001</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
@@ -2718,13 +2712,13 @@
         <v>5006</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2739,13 +2733,13 @@
         <v>2027</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -2754,7 +2748,7 @@
         <v>1085</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>15</v>
@@ -2769,13 +2763,13 @@
         <v>3112</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2831,7 +2825,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2843,10 +2837,10 @@
         <v>4292</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>16</v>
@@ -2861,7 +2855,7 @@
         <v>16</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>18</v>
@@ -2873,10 +2867,10 @@
         <v>5274</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>16</v>
@@ -2894,13 +2888,13 @@
         <v>2912</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2912,10 +2906,10 @@
         <v>15</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -2924,13 +2918,13 @@
         <v>2912</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2986,7 +2980,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2998,10 +2992,10 @@
         <v>2892</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>16</v>
@@ -3013,13 +3007,13 @@
         <v>3150</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -3028,13 +3022,13 @@
         <v>6042</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,13 +3043,13 @@
         <v>1793</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -3064,10 +3058,10 @@
         <v>4695</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>16</v>
@@ -3079,13 +3073,13 @@
         <v>6488</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3153,13 +3147,13 @@
         <v>15865</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -3168,13 +3162,13 @@
         <v>6017</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M22" s="7">
         <v>19</v>
@@ -3183,13 +3177,13 @@
         <v>21882</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3204,13 +3198,13 @@
         <v>8899</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -3219,13 +3213,13 @@
         <v>7703</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M23" s="7">
         <v>15</v>
@@ -3234,13 +3228,13 @@
         <v>16601</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3296,7 +3290,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A30-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A30-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6395E67-10EC-40B0-94E2-A5D1D823705A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB9CF83A-FE31-4D00-86B0-CE65FE04C971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{677A61B0-F609-43AE-96A3-150C39EF8B8E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{03CA6F57-98F6-4AAC-9C62-5BA83B9E8126}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="156">
   <si>
     <t>Población que recibe medicación o terapia por cirrosis en 2012 (Tasa respuesta: 0,66%)</t>
   </si>
@@ -105,10 +105,13 @@
     <t>75,01%</t>
   </si>
   <si>
+    <t>24,19%</t>
+  </si>
+  <si>
     <t>71,73%</t>
   </si>
   <si>
-    <t>28,86%</t>
+    <t>29,0%</t>
   </si>
   <si>
     <t>32,67%</t>
@@ -117,10 +120,13 @@
     <t>24,99%</t>
   </si>
   <si>
+    <t>75,81%</t>
+  </si>
+  <si>
     <t>28,27%</t>
   </si>
   <si>
-    <t>71,14%</t>
+    <t>71,0%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -129,49 +135,49 @@
     <t>67,0%</t>
   </si>
   <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
   </si>
   <si>
     <t>80,48%</t>
   </si>
   <si>
-    <t>21,22%</t>
+    <t>20,51%</t>
   </si>
   <si>
     <t>71,94%</t>
   </si>
   <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
   </si>
   <si>
     <t>33,0%</t>
   </si>
   <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
   </si>
   <si>
     <t>19,52%</t>
   </si>
   <si>
-    <t>78,78%</t>
+    <t>79,49%</t>
   </si>
   <si>
     <t>28,06%</t>
   </si>
   <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -186,13 +192,13 @@
     <t>83,96%</t>
   </si>
   <si>
-    <t>33,86%</t>
+    <t>34,41%</t>
   </si>
   <si>
     <t>72,48%</t>
   </si>
   <si>
-    <t>33,57%</t>
+    <t>30,1%</t>
   </si>
   <si>
     <t>40,61%</t>
@@ -204,13 +210,13 @@
     <t>16,04%</t>
   </si>
   <si>
-    <t>66,14%</t>
+    <t>65,59%</t>
   </si>
   <si>
     <t>27,52%</t>
   </si>
   <si>
-    <t>66,43%</t>
+    <t>69,9%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -222,19 +228,19 @@
     <t>51,7%</t>
   </si>
   <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
   </si>
   <si>
     <t>72,96%</t>
   </si>
   <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
   </si>
   <si>
     <t>0%</t>
@@ -246,79 +252,79 @@
     <t>48,3%</t>
   </si>
   <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
   </si>
   <si>
     <t>27,04%</t>
   </si>
   <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
   </si>
   <si>
     <t>70,6%</t>
   </si>
   <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
   </si>
   <si>
     <t>72,05%</t>
   </si>
   <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
   </si>
   <si>
     <t>71,28%</t>
   </si>
   <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
   </si>
   <si>
     <t>29,4%</t>
   </si>
   <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
   </si>
   <si>
     <t>27,95%</t>
   </si>
   <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
   </si>
   <si>
     <t>28,72%</t>
   </si>
   <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por cirrosis en 2015 (Tasa respuesta: 0,52%)</t>
+    <t>Población que recibe medicación o terapia por cirrosis en 2016 (Tasa respuesta: 0,52%)</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -354,7 +360,7 @@
     <t>66,4%</t>
   </si>
   <si>
-    <t>19,24%</t>
+    <t>19,31%</t>
   </si>
   <si>
     <t>48,01%</t>
@@ -363,16 +369,16 @@
     <t>61,67%</t>
   </si>
   <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
   </si>
   <si>
     <t>33,6%</t>
   </si>
   <si>
-    <t>80,76%</t>
+    <t>80,69%</t>
   </si>
   <si>
     <t>51,99%</t>
@@ -381,124 +387,124 @@
     <t>38,33%</t>
   </si>
   <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
   </si>
   <si>
     <t>59,58%</t>
   </si>
   <si>
-    <t>14,56%</t>
+    <t>13,0%</t>
   </si>
   <si>
     <t>64,43%</t>
   </si>
   <si>
-    <t>22,02%</t>
+    <t>23,23%</t>
   </si>
   <si>
     <t>40,42%</t>
   </si>
   <si>
-    <t>85,44%</t>
+    <t>87,0%</t>
   </si>
   <si>
     <t>35,57%</t>
   </si>
   <si>
-    <t>77,98%</t>
+    <t>76,77%</t>
   </si>
   <si>
     <t>61,72%</t>
   </si>
   <si>
-    <t>17,87%</t>
+    <t>18,1%</t>
   </si>
   <si>
     <t>40,15%</t>
   </si>
   <si>
+    <t>86,24%</t>
+  </si>
+  <si>
     <t>48,22%</t>
   </si>
   <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
   </si>
   <si>
     <t>38,28%</t>
   </si>
   <si>
-    <t>82,13%</t>
+    <t>81,9%</t>
   </si>
   <si>
     <t>59,85%</t>
   </si>
   <si>
+    <t>13,76%</t>
+  </si>
+  <si>
     <t>51,78%</t>
   </si>
   <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
   </si>
   <si>
     <t>64,07%</t>
   </si>
   <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
   </si>
   <si>
     <t>43,86%</t>
   </si>
   <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
   </si>
   <si>
     <t>56,86%</t>
   </si>
   <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
+    <t>73,81%</t>
   </si>
   <si>
     <t>35,93%</t>
   </si>
   <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
   </si>
   <si>
     <t>56,14%</t>
   </si>
   <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
   </si>
   <si>
     <t>43,14%</t>
   </si>
   <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
+    <t>26,19%</t>
   </si>
 </sst>
 </file>
@@ -910,7 +916,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{302AEF23-B10B-4EEF-BA33-30BFF6868D8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D898B3-DDB4-46F4-9F27-FCB26BA82EF9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1338,7 +1344,7 @@
         <v>21</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>16</v>
@@ -1350,10 +1356,10 @@
         <v>4955</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>16</v>
@@ -1371,7 +1377,7 @@
         <v>963</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>15</v>
@@ -1386,13 +1392,13 @@
         <v>990</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -1401,13 +1407,13 @@
         <v>1953</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1463,7 +1469,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1475,13 +1481,13 @@
         <v>6319</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -1490,10 +1496,10 @@
         <v>4400</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>16</v>
@@ -1505,13 +1511,13 @@
         <v>10719</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1526,13 +1532,13 @@
         <v>3113</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -1541,13 +1547,13 @@
         <v>1067</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -1556,13 +1562,13 @@
         <v>4180</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1618,7 +1624,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1630,10 +1636,10 @@
         <v>3254</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>16</v>
@@ -1645,10 +1651,10 @@
         <v>5244</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>16</v>
@@ -1660,10 +1666,10 @@
         <v>8498</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>16</v>
@@ -1681,13 +1687,13 @@
         <v>2225</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -1696,13 +1702,13 @@
         <v>1002</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -1711,13 +1717,13 @@
         <v>3227</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1773,7 +1779,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1788,7 +1794,7 @@
         <v>16</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>18</v>
@@ -1800,13 +1806,13 @@
         <v>3361</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -1815,13 +1821,13 @@
         <v>8469</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1839,10 +1845,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -1851,13 +1857,13 @@
         <v>3139</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -1866,13 +1872,13 @@
         <v>3139</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1940,13 +1946,13 @@
         <v>17602</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H22" s="7">
         <v>15</v>
@@ -1955,13 +1961,13 @@
         <v>15974</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M22" s="7">
         <v>31</v>
@@ -1970,13 +1976,13 @@
         <v>33576</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1991,13 +1997,13 @@
         <v>7331</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -2006,13 +2012,13 @@
         <v>6198</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M23" s="7">
         <v>12</v>
@@ -2021,13 +2027,13 @@
         <v>13528</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2083,7 +2089,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2105,7 +2111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC57426C-CDD9-4603-BD79-8BD2B976C7AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6345C1B-7ABF-45AE-A2E0-CE07A7C9992D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2122,7 +2128,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2245,10 +2251,10 @@
         <v>15</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2260,10 +2266,10 @@
         <v>15</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2294,7 +2300,7 @@
         <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>18</v>
@@ -2309,7 +2315,7 @@
         <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>18</v>
@@ -2381,10 +2387,10 @@
         <v>15</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -2393,7 +2399,7 @@
         <v>885</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>15</v>
@@ -2408,7 +2414,7 @@
         <v>885</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>15</v>
@@ -2432,7 +2438,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>18</v>
@@ -2444,7 +2450,7 @@
         <v>922</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>15</v>
@@ -2459,7 +2465,7 @@
         <v>1842</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>15</v>
@@ -2533,10 +2539,10 @@
         <v>4676</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>16</v>
@@ -2561,10 +2567,10 @@
         <v>4676</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>16</v>
@@ -2582,13 +2588,13 @@
         <v>1247</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2610,13 +2616,13 @@
         <v>1247</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2670,7 +2676,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2682,10 +2688,10 @@
         <v>4004</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>16</v>
@@ -2697,7 +2703,7 @@
         <v>1001</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
@@ -2712,13 +2718,13 @@
         <v>5006</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2733,13 +2739,13 @@
         <v>2027</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -2748,7 +2754,7 @@
         <v>1085</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>15</v>
@@ -2763,13 +2769,13 @@
         <v>3112</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2825,7 +2831,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2837,10 +2843,10 @@
         <v>4292</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>16</v>
@@ -2855,7 +2861,7 @@
         <v>16</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>18</v>
@@ -2867,10 +2873,10 @@
         <v>5274</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>16</v>
@@ -2888,13 +2894,13 @@
         <v>2912</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2906,10 +2912,10 @@
         <v>15</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -2918,13 +2924,13 @@
         <v>2912</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2980,7 +2986,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2992,10 +2998,10 @@
         <v>2892</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>16</v>
@@ -3007,13 +3013,13 @@
         <v>3150</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -3022,13 +3028,13 @@
         <v>6042</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,13 +3049,13 @@
         <v>1793</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -3058,10 +3064,10 @@
         <v>4695</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>47</v>
+        <v>136</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>16</v>
@@ -3073,13 +3079,13 @@
         <v>6488</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3147,13 +3153,13 @@
         <v>15865</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -3162,13 +3168,13 @@
         <v>6017</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M22" s="7">
         <v>19</v>
@@ -3177,13 +3183,13 @@
         <v>21882</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3198,13 +3204,13 @@
         <v>8899</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -3213,13 +3219,13 @@
         <v>7703</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M23" s="7">
         <v>15</v>
@@ -3228,13 +3234,13 @@
         <v>16601</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3290,7 +3296,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
